--- a/docs/demo-25/файлы/22/demo_2025_22.xlsx
+++ b/docs/demo-25/файлы/22/demo_2025_22.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\algop\Documents\GitHub\ege-24-25\docs\demo-25\файлы\22\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="330" yWindow="45" windowWidth="18645" windowHeight="11160"/>
+    <workbookView xWindow="1320" yWindow="45" windowWidth="18645" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -12,9 +17,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -54,8 +59,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,12 +70,72 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -85,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -99,6 +164,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -380,26 +455,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Y17" sqref="Y17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" style="3" customWidth="1"/>
+    <col min="4" max="56" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="60">
+    <row r="1" spans="1:41" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -411,7 +489,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>101</v>
       </c>
@@ -421,8 +499,20 @@
       <c r="C2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>102</v>
       </c>
@@ -432,8 +522,17 @@
       <c r="C3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>103</v>
       </c>
@@ -443,8 +542,10 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>104</v>
       </c>
@@ -454,8 +555,12 @@
       <c r="C5" s="3">
         <v>103</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>105</v>
       </c>
@@ -465,8 +570,26 @@
       <c r="C6" s="3">
         <v>103</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>106</v>
       </c>
@@ -476,8 +599,9 @@
       <c r="C7" s="3">
         <v>104</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="W7" s="12"/>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>107</v>
       </c>
@@ -487,8 +611,9 @@
       <c r="C8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="AK8" s="13"/>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>108</v>
       </c>
@@ -498,8 +623,11 @@
       <c r="C9" s="3">
         <v>107</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>109</v>
       </c>
@@ -509,8 +637,16 @@
       <c r="C10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>110</v>
       </c>
@@ -520,8 +656,22 @@
       <c r="C11" s="3">
         <v>109</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>111</v>
       </c>
@@ -531,8 +681,14 @@
       <c r="C12" s="3">
         <v>109</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>112</v>
       </c>
@@ -542,8 +698,23 @@
       <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="11"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>113</v>
       </c>
@@ -552,6 +723,28 @@
       </c>
       <c r="C14" s="3">
         <v>111</v>
+      </c>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="M16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="Y16">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
